--- a/Tilaus.xlsx
+++ b/Tilaus.xlsx
@@ -14,27 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <x:si>
+    <x:t>3ol7s3a51st835ut2se5jl4j0e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juustokakku 15 hlö</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nikolett Berkine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0502340123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nikolettberkinevarga@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mansikka kermakakku 15 hlö</x:t>
+  </x:si>
   <x:si>
     <x:t>evt-TEST-001</x:t>
   </x:si>
   <x:si>
-    <x:t>Vadelma kerma kakku 15 hlö</x:t>
+    <x:t>Juustokakku 12 hlö</x:t>
   </x:si>
   <x:si>
     <x:t>Aku Ankka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0502340123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nikolettberkinevarga@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suklaakakku 15 hlö</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juustokakku 12 hlö</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,13 +409,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1">
-        <x:v>45903</x:v>
+        <x:v>45919</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1" s="0" t="n">
         <x:v>60</x:v>
@@ -429,7 +435,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="1">
-        <x:v>45903</x:v>
+        <x:v>45919</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
@@ -438,7 +444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>2</x:v>
@@ -452,13 +458,13 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="1">
         <x:v>45903</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>1</x:v>
@@ -467,7 +473,7 @@
         <x:v>48.5</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>3</x:v>
